--- a/docs/Schema/DataBase Schema.xlsx
+++ b/docs/Schema/DataBase Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6855" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>sub_id</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>snds_API</t>
-  </si>
-  <si>
-    <t>snds_template_slug</t>
   </si>
   <si>
     <t>snds_message</t>
@@ -476,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -513,47 +510,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -564,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -572,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,23 +583,20 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,7 +606,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Schema/DataBase Schema.xlsx
+++ b/docs/Schema/DataBase Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7800" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>sub_id</t>
   </si>
@@ -73,12 +73,6 @@
     <t>sub_last_visit_date</t>
   </si>
   <si>
-    <t>snds_type: Message,Scheduled,BirthdayWish,Appointment</t>
-  </si>
-  <si>
-    <t>snds_status: Sent,Scheduled,Failed,canceled</t>
-  </si>
-  <si>
     <t>group_id</t>
   </si>
   <si>
@@ -113,6 +107,39 @@
   </si>
   <si>
     <t>template_message</t>
+  </si>
+  <si>
+    <t>snd_to</t>
+  </si>
+  <si>
+    <t>snds_status: Sent,Planned,Canceled</t>
+  </si>
+  <si>
+    <t>snds_type: Custom,Scheduled</t>
+  </si>
+  <si>
+    <t>sms_reminders</t>
+  </si>
+  <si>
+    <t>rmnd_id</t>
+  </si>
+  <si>
+    <t>rmnd_to</t>
+  </si>
+  <si>
+    <t>rmnd_date</t>
+  </si>
+  <si>
+    <t>rmnd_API</t>
+  </si>
+  <si>
+    <t>rmnd_message</t>
+  </si>
+  <si>
+    <t>rmnd_type:BirthdayWish,Appointment</t>
+  </si>
+  <si>
+    <t>rmnd_status: Sent,Planned,Canceled</t>
   </si>
 </sst>
 </file>
@@ -471,24 +498,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -499,112 +527,139 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
